--- a/Statystyki_2018/Template/aopk2_.xlsx
+++ b/Statystyki_2018/Template/aopk2_.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>lp</t>
   </si>
@@ -325,6 +325,9 @@
     <t>w tym, w których projekt został zaakceptowany przez sędziego</t>
   </si>
   <si>
+    <t>Jola Mika</t>
+  </si>
+  <si>
     <t>Kordyka Krystian</t>
   </si>
   <si>
@@ -346,16 +349,16 @@
     <t>Razem</t>
   </si>
   <si>
-    <t>4094</t>
+    <t>8188</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1204630</t>
-  </si>
-  <si>
-    <t>1604630</t>
+    <t>24092,6</t>
+  </si>
+  <si>
+    <t>32092,6</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -808,7 +811,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1AD5DC-6776-43B4-BA32-4DC06F2D87A5}">
-  <dimension ref="A1:IW14"/>
+  <dimension ref="A1:IW22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
@@ -3617,6 +3619,24 @@
       <c r="CV8" s="53">
         <v>0</v>
       </c>
+      <c r="CW8" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="52">
@@ -3919,6 +3939,24 @@
       <c r="CV9" s="53">
         <v>0</v>
       </c>
+      <c r="CW9" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="52">
@@ -4221,6 +4259,24 @@
       <c r="CV10" s="53">
         <v>0</v>
       </c>
+      <c r="CW10" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX10" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="52">
@@ -4230,7 +4286,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="53">
-        <v>2038</v>
+        <v>0</v>
       </c>
       <c r="D11" s="53">
         <v>0</v>
@@ -4245,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="53">
-        <v>602315</v>
+        <v>0</v>
       </c>
       <c r="I11" s="53">
         <v>0</v>
       </c>
       <c r="J11" s="53">
-        <v>802315</v>
+        <v>0</v>
       </c>
       <c r="K11" s="53">
         <v>0</v>
@@ -4521,6 +4577,24 @@
         <v>0</v>
       </c>
       <c r="CV11" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX11" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ11" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="53">
         <v>0</v>
       </c>
     </row>
@@ -4532,7 +4606,7 @@
         <v>77</v>
       </c>
       <c r="C12" s="53">
-        <v>2056</v>
+        <v>2038</v>
       </c>
       <c r="D12" s="53">
         <v>0</v>
@@ -4547,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="53">
-        <v>602315</v>
+        <v>6023.15</v>
       </c>
       <c r="I12" s="53">
         <v>0</v>
       </c>
       <c r="J12" s="53">
-        <v>802315</v>
+        <v>8023.15</v>
       </c>
       <c r="K12" s="53">
         <v>0</v>
@@ -4823,6 +4897,24 @@
         <v>0</v>
       </c>
       <c r="CV12" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW12" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX12" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY12" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ12" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA12" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB12" s="53">
         <v>0</v>
       </c>
     </row>
@@ -4834,7 +4926,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="53">
-        <v>0</v>
+        <v>2056</v>
       </c>
       <c r="D13" s="53">
         <v>0</v>
@@ -4849,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="53">
-        <v>0</v>
+        <v>6023.15</v>
       </c>
       <c r="I13" s="53">
         <v>0</v>
       </c>
       <c r="J13" s="53">
-        <v>0</v>
+        <v>8023.15</v>
       </c>
       <c r="K13" s="53">
         <v>0</v>
@@ -5125,306 +5217,2902 @@
         <v>0</v>
       </c>
       <c r="CV13" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW13" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX13" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY13" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA13" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB13" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="52">
+        <v>7</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="53">
+        <v>0</v>
+      </c>
+      <c r="D14" s="53">
+        <v>0</v>
+      </c>
+      <c r="E14" s="53">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0</v>
+      </c>
+      <c r="H14" s="53">
+        <v>0</v>
+      </c>
+      <c r="I14" s="53">
+        <v>0</v>
+      </c>
+      <c r="J14" s="53">
+        <v>0</v>
+      </c>
+      <c r="K14" s="53">
+        <v>0</v>
+      </c>
+      <c r="L14" s="53">
+        <v>0</v>
+      </c>
+      <c r="M14" s="53">
+        <v>0</v>
+      </c>
+      <c r="N14" s="53">
+        <v>0</v>
+      </c>
+      <c r="O14" s="53">
+        <v>0</v>
+      </c>
+      <c r="P14" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="53">
+        <v>0</v>
+      </c>
+      <c r="R14" s="53">
+        <v>0</v>
+      </c>
+      <c r="S14" s="53">
+        <v>0</v>
+      </c>
+      <c r="T14" s="53">
+        <v>0</v>
+      </c>
+      <c r="U14" s="53">
+        <v>0</v>
+      </c>
+      <c r="V14" s="53">
+        <v>0</v>
+      </c>
+      <c r="W14" s="53">
+        <v>0</v>
+      </c>
+      <c r="X14" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="53">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CA14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CB14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CC14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CD14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CE14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CF14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CG14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CH14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CK14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CL14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CM14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CQ14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CR14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CS14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CT14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CU14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CV14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY14" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ14" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA14" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB14" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="52">
+        <v>8</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="53">
+        <v>0</v>
+      </c>
+      <c r="D15" s="53">
+        <v>0</v>
+      </c>
+      <c r="E15" s="53">
+        <v>0</v>
+      </c>
+      <c r="F15" s="53">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53">
+        <v>0</v>
+      </c>
+      <c r="H15" s="53">
+        <v>0</v>
+      </c>
+      <c r="I15" s="53">
+        <v>0</v>
+      </c>
+      <c r="J15" s="53">
+        <v>0</v>
+      </c>
+      <c r="K15" s="53">
+        <v>0</v>
+      </c>
+      <c r="L15" s="53">
+        <v>0</v>
+      </c>
+      <c r="M15" s="53">
+        <v>0</v>
+      </c>
+      <c r="N15" s="53">
+        <v>0</v>
+      </c>
+      <c r="O15" s="53">
+        <v>0</v>
+      </c>
+      <c r="P15" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="53">
+        <v>0</v>
+      </c>
+      <c r="R15" s="53">
+        <v>0</v>
+      </c>
+      <c r="S15" s="53">
+        <v>0</v>
+      </c>
+      <c r="T15" s="53">
+        <v>0</v>
+      </c>
+      <c r="U15" s="53">
+        <v>0</v>
+      </c>
+      <c r="V15" s="53">
+        <v>0</v>
+      </c>
+      <c r="W15" s="53">
+        <v>0</v>
+      </c>
+      <c r="X15" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="53">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CH15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CL15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CS15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CT15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CV15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY15" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA15" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB15" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="52">
+        <v>9</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="53">
+        <v>0</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0</v>
+      </c>
+      <c r="E16" s="53">
+        <v>0</v>
+      </c>
+      <c r="F16" s="53">
+        <v>0</v>
+      </c>
+      <c r="G16" s="53">
+        <v>0</v>
+      </c>
+      <c r="H16" s="53">
+        <v>0</v>
+      </c>
+      <c r="I16" s="53">
+        <v>0</v>
+      </c>
+      <c r="J16" s="53">
+        <v>0</v>
+      </c>
+      <c r="K16" s="53">
+        <v>0</v>
+      </c>
+      <c r="L16" s="53">
+        <v>0</v>
+      </c>
+      <c r="M16" s="53">
+        <v>0</v>
+      </c>
+      <c r="N16" s="53">
+        <v>0</v>
+      </c>
+      <c r="O16" s="53">
+        <v>0</v>
+      </c>
+      <c r="P16" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="53">
+        <v>0</v>
+      </c>
+      <c r="R16" s="53">
+        <v>0</v>
+      </c>
+      <c r="S16" s="53">
+        <v>0</v>
+      </c>
+      <c r="T16" s="53">
+        <v>0</v>
+      </c>
+      <c r="U16" s="53">
+        <v>0</v>
+      </c>
+      <c r="V16" s="53">
+        <v>0</v>
+      </c>
+      <c r="W16" s="53">
+        <v>0</v>
+      </c>
+      <c r="X16" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="53">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CB16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CC16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CD16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CE16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CH16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CK16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CL16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CM16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CQ16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CS16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CT16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CV16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY16" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ16" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA16" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB16" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="52">
+        <v>10</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="53">
+        <v>0</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0</v>
+      </c>
+      <c r="E17" s="53">
+        <v>0</v>
+      </c>
+      <c r="F17" s="53">
+        <v>0</v>
+      </c>
+      <c r="G17" s="53">
+        <v>0</v>
+      </c>
+      <c r="H17" s="53">
+        <v>0</v>
+      </c>
+      <c r="I17" s="53">
+        <v>0</v>
+      </c>
+      <c r="J17" s="53">
+        <v>0</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0</v>
+      </c>
+      <c r="L17" s="53">
+        <v>0</v>
+      </c>
+      <c r="M17" s="53">
+        <v>0</v>
+      </c>
+      <c r="N17" s="53">
+        <v>0</v>
+      </c>
+      <c r="O17" s="53">
+        <v>0</v>
+      </c>
+      <c r="P17" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="53">
+        <v>0</v>
+      </c>
+      <c r="R17" s="53">
+        <v>0</v>
+      </c>
+      <c r="S17" s="53">
+        <v>0</v>
+      </c>
+      <c r="T17" s="53">
+        <v>0</v>
+      </c>
+      <c r="U17" s="53">
+        <v>0</v>
+      </c>
+      <c r="V17" s="53">
+        <v>0</v>
+      </c>
+      <c r="W17" s="53">
+        <v>0</v>
+      </c>
+      <c r="X17" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="53">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CS17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CT17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CV17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY17" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ17" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA17" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB17" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="52">
+        <v>11</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="53">
+        <v>0</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0</v>
+      </c>
+      <c r="E18" s="53">
+        <v>0</v>
+      </c>
+      <c r="F18" s="53">
+        <v>0</v>
+      </c>
+      <c r="G18" s="53">
+        <v>0</v>
+      </c>
+      <c r="H18" s="53">
+        <v>0</v>
+      </c>
+      <c r="I18" s="53">
+        <v>0</v>
+      </c>
+      <c r="J18" s="53">
+        <v>0</v>
+      </c>
+      <c r="K18" s="53">
+        <v>0</v>
+      </c>
+      <c r="L18" s="53">
+        <v>0</v>
+      </c>
+      <c r="M18" s="53">
+        <v>0</v>
+      </c>
+      <c r="N18" s="53">
+        <v>0</v>
+      </c>
+      <c r="O18" s="53">
+        <v>0</v>
+      </c>
+      <c r="P18" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="53">
+        <v>0</v>
+      </c>
+      <c r="R18" s="53">
+        <v>0</v>
+      </c>
+      <c r="S18" s="53">
+        <v>0</v>
+      </c>
+      <c r="T18" s="53">
+        <v>0</v>
+      </c>
+      <c r="U18" s="53">
+        <v>0</v>
+      </c>
+      <c r="V18" s="53">
+        <v>0</v>
+      </c>
+      <c r="W18" s="53">
+        <v>0</v>
+      </c>
+      <c r="X18" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="53">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CB18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CC18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CH18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CK18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CL18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CM18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CQ18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CR18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CS18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CT18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CU18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CV18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY18" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ18" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA18" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB18" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="52">
+        <v>12</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="53">
+        <v>2038</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53">
+        <v>0</v>
+      </c>
+      <c r="F19" s="53">
+        <v>0</v>
+      </c>
+      <c r="G19" s="53">
+        <v>0</v>
+      </c>
+      <c r="H19" s="53">
+        <v>6023.15</v>
+      </c>
+      <c r="I19" s="53">
+        <v>0</v>
+      </c>
+      <c r="J19" s="53">
+        <v>8023.15</v>
+      </c>
+      <c r="K19" s="53">
+        <v>0</v>
+      </c>
+      <c r="L19" s="53">
+        <v>0</v>
+      </c>
+      <c r="M19" s="53">
+        <v>0</v>
+      </c>
+      <c r="N19" s="53">
+        <v>0</v>
+      </c>
+      <c r="O19" s="53">
+        <v>0</v>
+      </c>
+      <c r="P19" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="53">
+        <v>0</v>
+      </c>
+      <c r="R19" s="53">
+        <v>0</v>
+      </c>
+      <c r="S19" s="53">
+        <v>0</v>
+      </c>
+      <c r="T19" s="53">
+        <v>0</v>
+      </c>
+      <c r="U19" s="53">
+        <v>0</v>
+      </c>
+      <c r="V19" s="53">
+        <v>0</v>
+      </c>
+      <c r="W19" s="53">
+        <v>0</v>
+      </c>
+      <c r="X19" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BR19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BY19" s="53">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CB19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CC19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CG19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CH19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CI19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CK19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CL19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CQ19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CS19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CT19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CU19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CV19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ19" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA19" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB19" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="52">
+        <v>13</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="53">
+        <v>2056</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0</v>
+      </c>
+      <c r="E20" s="53">
+        <v>0</v>
+      </c>
+      <c r="F20" s="53">
+        <v>0</v>
+      </c>
+      <c r="G20" s="53">
+        <v>0</v>
+      </c>
+      <c r="H20" s="53">
+        <v>6023.15</v>
+      </c>
+      <c r="I20" s="53">
+        <v>0</v>
+      </c>
+      <c r="J20" s="53">
+        <v>8023.15</v>
+      </c>
+      <c r="K20" s="53">
+        <v>0</v>
+      </c>
+      <c r="L20" s="53">
+        <v>0</v>
+      </c>
+      <c r="M20" s="53">
+        <v>0</v>
+      </c>
+      <c r="N20" s="53">
+        <v>0</v>
+      </c>
+      <c r="O20" s="53">
+        <v>0</v>
+      </c>
+      <c r="P20" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="53">
+        <v>0</v>
+      </c>
+      <c r="R20" s="53">
+        <v>0</v>
+      </c>
+      <c r="S20" s="53">
+        <v>0</v>
+      </c>
+      <c r="T20" s="53">
+        <v>0</v>
+      </c>
+      <c r="U20" s="53">
+        <v>0</v>
+      </c>
+      <c r="V20" s="53">
+        <v>0</v>
+      </c>
+      <c r="W20" s="53">
+        <v>0</v>
+      </c>
+      <c r="X20" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BS20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="53">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CA20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CB20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CC20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CD20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CE20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CF20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CG20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CH20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CI20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CK20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CL20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CM20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CR20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CS20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CT20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CU20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CV20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY20" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ20" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA20" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB20" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="52">
+        <v>14</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="53">
+        <v>0</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0</v>
+      </c>
+      <c r="F21" s="53">
+        <v>0</v>
+      </c>
+      <c r="G21" s="53">
+        <v>0</v>
+      </c>
+      <c r="H21" s="53">
+        <v>0</v>
+      </c>
+      <c r="I21" s="53">
+        <v>0</v>
+      </c>
+      <c r="J21" s="53">
+        <v>0</v>
+      </c>
+      <c r="K21" s="53">
+        <v>0</v>
+      </c>
+      <c r="L21" s="53">
+        <v>0</v>
+      </c>
+      <c r="M21" s="53">
+        <v>0</v>
+      </c>
+      <c r="N21" s="53">
+        <v>0</v>
+      </c>
+      <c r="O21" s="53">
+        <v>0</v>
+      </c>
+      <c r="P21" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="53">
+        <v>0</v>
+      </c>
+      <c r="R21" s="53">
+        <v>0</v>
+      </c>
+      <c r="S21" s="53">
+        <v>0</v>
+      </c>
+      <c r="T21" s="53">
+        <v>0</v>
+      </c>
+      <c r="U21" s="53">
+        <v>0</v>
+      </c>
+      <c r="V21" s="53">
+        <v>0</v>
+      </c>
+      <c r="W21" s="53">
+        <v>0</v>
+      </c>
+      <c r="X21" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="53">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CD21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CE21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CG21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CH21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CI21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CJ21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CK21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CL21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CM21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CR21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CS21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CT21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CU21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CV21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CW21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CX21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CY21" s="53">
+        <v>0</v>
+      </c>
+      <c r="CZ21" s="53">
+        <v>0</v>
+      </c>
+      <c r="DA21" s="53">
+        <v>0</v>
+      </c>
+      <c r="DB21" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="C22" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="54" t="s">
+      <c r="D22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="R14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="S14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="U14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="V14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="W14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="X14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BG14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BL14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BN14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BQ14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BR14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BS14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BT14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BU14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BV14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BW14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BX14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BY14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="BZ14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CA14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CB14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CC14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CH14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CI14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CJ14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CK14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CL14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CM14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CN14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CO14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CP14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CQ14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CR14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CS14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CT14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CU14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="CV14" s="54" t="s">
-        <v>81</v>
+      <c r="I22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="R22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="S22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="T22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="U22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="V22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="W22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="X22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CK22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CL22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CM22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CN22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CO22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CP22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CQ22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CS22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CT22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CU22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CV22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CW22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CX22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CY22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="CZ22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="DA22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="DB22" s="53" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
